--- a/Data/DeathsSpain_Eurostat.xlsx
+++ b/Data/DeathsSpain_Eurostat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="24885" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2156" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2176" uniqueCount="197">
   <si>
-    <t>Deaths by age and sex [DEMO_MAGEC__custom_7007254]</t>
+    <t>Deaths by age and sex [demo_magec__custom_11224288]</t>
   </si>
   <si>
     <t>Open product page</t>
@@ -41,13 +41,10 @@
     <t xml:space="preserve">Last update of data: </t>
   </si>
   <si>
-    <t>20/06/2023 23:00</t>
+    <t>25/03/2024 11:00</t>
   </si>
   <si>
     <t xml:space="preserve">Last change of data structure: </t>
-  </si>
-  <si>
-    <t>16/03/2023 11:00</t>
   </si>
   <si>
     <t>Institutional source(s)</t>
@@ -596,7 +593,10 @@
     <t>2021</t>
   </si>
   <si>
-    <t>Data extracted on 25/07/2023 14:34:43 from [ESTAT]</t>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>Data extracted on 06/05/2024 11:44:30 from [ESTAT]</t>
   </si>
   <si>
     <t xml:space="preserve">Dataset: </t>
@@ -1142,45 +1142,45 @@
         <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="D15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="E15" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1199,7 +1199,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C172"/>
+  <dimension ref="A1:C173"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -1210,1374 +1210,1382 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C110" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C111" s="11" t="s">
         <v>128</v>
-      </c>
-      <c r="C111" s="11" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B126" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B131" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B132" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B133" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B135" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B136" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B137" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B138" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B139" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B140" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B141" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B142" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B143" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B144" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B145" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B146" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B147" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B148" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B149" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B150" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B151" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B152" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B153" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B154" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B155" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B156" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B157" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B158" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B159" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B160" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B161" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B162" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B163" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B164" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B165" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C165" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B166" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B167" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B168" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B169" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B170" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B171" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B172" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C172" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B173" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C173" s="11" t="s">
         <v>190</v>
       </c>
     </row>
@@ -2588,28 +2596,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL114"/>
+  <dimension ref="A1:BM115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="BB34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A112" sqref="A112:XFD112"/>
+      <selection pane="bottomRight" activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="64" width="10" customWidth="1"/>
+    <col min="3" max="65" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>192</v>
       </c>
@@ -2617,7 +2625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>193</v>
       </c>
@@ -2625,31 +2633,31 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>194</v>
       </c>
@@ -2657,198 +2665,201 @@
         <v>195</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="L9" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="M9" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="N9" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="O9" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="P9" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="Q9" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="R9" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="R9" s="4" t="s">
+      <c r="S9" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="S9" s="4" t="s">
+      <c r="T9" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="T9" s="4" t="s">
+      <c r="U9" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="U9" s="4" t="s">
+      <c r="V9" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="V9" s="4" t="s">
+      <c r="W9" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="W9" s="4" t="s">
+      <c r="X9" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="X9" s="4" t="s">
+      <c r="Y9" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Y9" s="4" t="s">
+      <c r="Z9" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="Z9" s="4" t="s">
+      <c r="AA9" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AA9" s="4" t="s">
+      <c r="AB9" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AB9" s="4" t="s">
+      <c r="AC9" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="AC9" s="4" t="s">
+      <c r="AD9" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="AD9" s="4" t="s">
+      <c r="AE9" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="AE9" s="4" t="s">
+      <c r="AF9" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="AF9" s="4" t="s">
+      <c r="AG9" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="AG9" s="4" t="s">
+      <c r="AH9" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="AH9" s="4" t="s">
+      <c r="AI9" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="AI9" s="4" t="s">
+      <c r="AJ9" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="AJ9" s="4" t="s">
+      <c r="AK9" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="AK9" s="4" t="s">
+      <c r="AL9" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="AL9" s="4" t="s">
+      <c r="AM9" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="AM9" s="4" t="s">
+      <c r="AN9" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="AN9" s="4" t="s">
+      <c r="AO9" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="AO9" s="4" t="s">
+      <c r="AP9" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="AP9" s="4" t="s">
+      <c r="AQ9" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="AQ9" s="4" t="s">
+      <c r="AR9" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="AR9" s="4" t="s">
+      <c r="AS9" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="AS9" s="4" t="s">
+      <c r="AT9" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="AT9" s="4" t="s">
+      <c r="AU9" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="AU9" s="4" t="s">
+      <c r="AV9" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="AV9" s="4" t="s">
+      <c r="AW9" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="AW9" s="4" t="s">
+      <c r="AX9" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="AX9" s="4" t="s">
+      <c r="AY9" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="AY9" s="4" t="s">
+      <c r="AZ9" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="AZ9" s="4" t="s">
+      <c r="BA9" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="BA9" s="4" t="s">
+      <c r="BB9" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="BB9" s="4" t="s">
+      <c r="BC9" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="BC9" s="4" t="s">
+      <c r="BD9" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="BD9" s="4" t="s">
+      <c r="BE9" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="BE9" s="4" t="s">
+      <c r="BF9" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="BF9" s="4" t="s">
+      <c r="BG9" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="BG9" s="4" t="s">
+      <c r="BH9" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="BH9" s="4" t="s">
+      <c r="BI9" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="BI9" s="4" t="s">
+      <c r="BJ9" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="BJ9" s="4" t="s">
+      <c r="BK9" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="BK9" s="4" t="s">
+      <c r="BL9" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="BL9" s="4" t="s">
+      <c r="BM9" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="7">
         <v>262260</v>
@@ -3036,13 +3047,16 @@
       <c r="BL10" s="7">
         <v>449149</v>
       </c>
-    </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM10" s="7">
+        <v>461954</v>
+      </c>
+    </row>
+    <row r="11" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>196</v>
@@ -3230,13 +3244,16 @@
       <c r="BL11" s="8">
         <v>855</v>
       </c>
-    </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM11" s="8">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="12" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>196</v>
@@ -3424,13 +3441,16 @@
       <c r="BL12" s="7">
         <v>67</v>
       </c>
-    </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM12" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>196</v>
@@ -3618,13 +3638,16 @@
       <c r="BL13" s="8">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM13" s="8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>196</v>
@@ -3812,13 +3835,16 @@
       <c r="BL14" s="7">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM14" s="7">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>196</v>
@@ -4006,13 +4032,16 @@
       <c r="BL15" s="8">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM15" s="8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>196</v>
@@ -4200,13 +4229,16 @@
       <c r="BL16" s="7">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM16" s="7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>196</v>
@@ -4394,13 +4426,16 @@
       <c r="BL17" s="8">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM17" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>196</v>
@@ -4588,13 +4623,16 @@
       <c r="BL18" s="7">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM18" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>196</v>
@@ -4782,13 +4820,16 @@
       <c r="BL19" s="8">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM19" s="8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>196</v>
@@ -4976,13 +5017,16 @@
       <c r="BL20" s="7">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM20" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>196</v>
@@ -5170,13 +5214,16 @@
       <c r="BL21" s="8">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM21" s="8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>196</v>
@@ -5364,13 +5411,16 @@
       <c r="BL22" s="7">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM22" s="7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>196</v>
@@ -5558,13 +5608,16 @@
       <c r="BL23" s="8">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM23" s="8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>196</v>
@@ -5752,13 +5805,16 @@
       <c r="BL24" s="7">
         <v>42</v>
       </c>
-    </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM24" s="7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>196</v>
@@ -5946,13 +6002,16 @@
       <c r="BL25" s="8">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM25" s="8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>196</v>
@@ -6140,13 +6199,16 @@
       <c r="BL26" s="7">
         <v>69</v>
       </c>
-    </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM26" s="7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>196</v>
@@ -6334,13 +6396,16 @@
       <c r="BL27" s="8">
         <v>66</v>
       </c>
-    </row>
-    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM27" s="8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>196</v>
@@ -6528,13 +6593,16 @@
       <c r="BL28" s="7">
         <v>86</v>
       </c>
-    </row>
-    <row r="29" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM28" s="7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>196</v>
@@ -6722,13 +6790,16 @@
       <c r="BL29" s="8">
         <v>93</v>
       </c>
-    </row>
-    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM29" s="8">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>196</v>
@@ -6916,13 +6987,16 @@
       <c r="BL30" s="7">
         <v>101</v>
       </c>
-    </row>
-    <row r="31" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM30" s="7">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>196</v>
@@ -7110,13 +7184,16 @@
       <c r="BL31" s="8">
         <v>117</v>
       </c>
-    </row>
-    <row r="32" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM31" s="8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>196</v>
@@ -7304,13 +7381,16 @@
       <c r="BL32" s="7">
         <v>130</v>
       </c>
-    </row>
-    <row r="33" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM32" s="7">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>196</v>
@@ -7498,13 +7578,16 @@
       <c r="BL33" s="8">
         <v>126</v>
       </c>
-    </row>
-    <row r="34" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM33" s="8">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>196</v>
@@ -7692,13 +7775,16 @@
       <c r="BL34" s="7">
         <v>117</v>
       </c>
-    </row>
-    <row r="35" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM34" s="7">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>196</v>
@@ -7886,13 +7972,16 @@
       <c r="BL35" s="8">
         <v>148</v>
       </c>
-    </row>
-    <row r="36" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM35" s="8">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>196</v>
@@ -8080,13 +8169,16 @@
       <c r="BL36" s="7">
         <v>148</v>
       </c>
-    </row>
-    <row r="37" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM36" s="7">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>196</v>
@@ -8274,13 +8366,16 @@
       <c r="BL37" s="8">
         <v>125</v>
       </c>
-    </row>
-    <row r="38" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM37" s="8">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>196</v>
@@ -8468,13 +8563,16 @@
       <c r="BL38" s="7">
         <v>155</v>
       </c>
-    </row>
-    <row r="39" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM38" s="7">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>196</v>
@@ -8662,13 +8760,16 @@
       <c r="BL39" s="8">
         <v>153</v>
       </c>
-    </row>
-    <row r="40" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM39" s="8">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>196</v>
@@ -8856,13 +8957,16 @@
       <c r="BL40" s="7">
         <v>168</v>
       </c>
-    </row>
-    <row r="41" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM40" s="7">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>196</v>
@@ -9050,13 +9154,16 @@
       <c r="BL41" s="8">
         <v>217</v>
       </c>
-    </row>
-    <row r="42" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM41" s="8">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="42" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>196</v>
@@ -9244,13 +9351,16 @@
       <c r="BL42" s="7">
         <v>186</v>
       </c>
-    </row>
-    <row r="43" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM42" s="7">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="43" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>196</v>
@@ -9438,13 +9548,16 @@
       <c r="BL43" s="8">
         <v>226</v>
       </c>
-    </row>
-    <row r="44" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM43" s="8">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="44" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>196</v>
@@ -9632,13 +9745,16 @@
       <c r="BL44" s="7">
         <v>241</v>
       </c>
-    </row>
-    <row r="45" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM44" s="7">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="45" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>196</v>
@@ -9826,13 +9942,16 @@
       <c r="BL45" s="8">
         <v>279</v>
       </c>
-    </row>
-    <row r="46" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM45" s="8">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="46" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>196</v>
@@ -10020,13 +10139,16 @@
       <c r="BL46" s="7">
         <v>284</v>
       </c>
-    </row>
-    <row r="47" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM46" s="7">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="47" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>196</v>
@@ -10214,13 +10336,16 @@
       <c r="BL47" s="8">
         <v>315</v>
       </c>
-    </row>
-    <row r="48" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM47" s="8">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="48" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>196</v>
@@ -10408,13 +10533,16 @@
       <c r="BL48" s="7">
         <v>368</v>
       </c>
-    </row>
-    <row r="49" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM48" s="7">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="49" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>196</v>
@@ -10602,13 +10730,16 @@
       <c r="BL49" s="8">
         <v>416</v>
       </c>
-    </row>
-    <row r="50" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM49" s="8">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="50" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>196</v>
@@ -10796,13 +10927,16 @@
       <c r="BL50" s="7">
         <v>470</v>
       </c>
-    </row>
-    <row r="51" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM50" s="7">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="51" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>196</v>
@@ -10990,13 +11124,16 @@
       <c r="BL51" s="8">
         <v>555</v>
       </c>
-    </row>
-    <row r="52" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM51" s="8">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="52" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>196</v>
@@ -11184,13 +11321,16 @@
       <c r="BL52" s="7">
         <v>592</v>
       </c>
-    </row>
-    <row r="53" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM52" s="7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="53" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>196</v>
@@ -11378,13 +11518,16 @@
       <c r="BL53" s="8">
         <v>636</v>
       </c>
-    </row>
-    <row r="54" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM53" s="8">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="54" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>196</v>
@@ -11572,13 +11715,16 @@
       <c r="BL54" s="7">
         <v>749</v>
       </c>
-    </row>
-    <row r="55" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM54" s="7">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="55" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>196</v>
@@ -11766,13 +11912,16 @@
       <c r="BL55" s="8">
         <v>841</v>
       </c>
-    </row>
-    <row r="56" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM55" s="8">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="56" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>196</v>
@@ -11960,13 +12109,16 @@
       <c r="BL56" s="7">
         <v>938</v>
       </c>
-    </row>
-    <row r="57" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM56" s="7">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="57" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>196</v>
@@ -12154,13 +12306,16 @@
       <c r="BL57" s="8">
         <v>1074</v>
       </c>
-    </row>
-    <row r="58" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM57" s="8">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="58" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>196</v>
@@ -12348,13 +12503,16 @@
       <c r="BL58" s="7">
         <v>1126</v>
       </c>
-    </row>
-    <row r="59" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM58" s="7">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="59" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>196</v>
@@ -12542,13 +12700,16 @@
       <c r="BL59" s="8">
         <v>1253</v>
       </c>
-    </row>
-    <row r="60" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM59" s="8">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="60" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>196</v>
@@ -12736,13 +12897,16 @@
       <c r="BL60" s="7">
         <v>1404</v>
       </c>
-    </row>
-    <row r="61" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM60" s="7">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="61" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>196</v>
@@ -12930,13 +13094,16 @@
       <c r="BL61" s="8">
         <v>1538</v>
       </c>
-    </row>
-    <row r="62" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM61" s="8">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="62" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>196</v>
@@ -13124,13 +13291,16 @@
       <c r="BL62" s="7">
         <v>1765</v>
       </c>
-    </row>
-    <row r="63" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM62" s="7">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="63" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>196</v>
@@ -13318,13 +13488,16 @@
       <c r="BL63" s="8">
         <v>1900</v>
       </c>
-    </row>
-    <row r="64" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM63" s="8">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="64" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>196</v>
@@ -13512,13 +13685,16 @@
       <c r="BL64" s="7">
         <v>2253</v>
       </c>
-    </row>
-    <row r="65" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM64" s="7">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="65" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>196</v>
@@ -13706,13 +13882,16 @@
       <c r="BL65" s="8">
         <v>2359</v>
       </c>
-    </row>
-    <row r="66" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM65" s="8">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="66" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>196</v>
@@ -13900,13 +14079,16 @@
       <c r="BL66" s="7">
         <v>2605</v>
       </c>
-    </row>
-    <row r="67" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM66" s="7">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="67" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>196</v>
@@ -14094,13 +14276,16 @@
       <c r="BL67" s="8">
         <v>2864</v>
       </c>
-    </row>
-    <row r="68" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM67" s="8">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="68" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>196</v>
@@ -14288,13 +14473,16 @@
       <c r="BL68" s="7">
         <v>3115</v>
       </c>
-    </row>
-    <row r="69" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM68" s="7">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>196</v>
@@ -14482,13 +14670,16 @@
       <c r="BL69" s="8">
         <v>3256</v>
       </c>
-    </row>
-    <row r="70" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM69" s="8">
+        <v>3261</v>
+      </c>
+    </row>
+    <row r="70" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>196</v>
@@ -14676,13 +14867,16 @@
       <c r="BL70" s="7">
         <v>3597</v>
       </c>
-    </row>
-    <row r="71" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM70" s="7">
+        <v>3539</v>
+      </c>
+    </row>
+    <row r="71" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>196</v>
@@ -14870,13 +15064,16 @@
       <c r="BL71" s="8">
         <v>3776</v>
       </c>
-    </row>
-    <row r="72" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM71" s="8">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="72" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>196</v>
@@ -15064,13 +15261,16 @@
       <c r="BL72" s="7">
         <v>4214</v>
       </c>
-    </row>
-    <row r="73" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM72" s="7">
+        <v>3998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>196</v>
@@ -15258,13 +15458,16 @@
       <c r="BL73" s="8">
         <v>4363</v>
       </c>
-    </row>
-    <row r="74" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM73" s="8">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="74" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>196</v>
@@ -15452,13 +15655,16 @@
       <c r="BL74" s="7">
         <v>4775</v>
       </c>
-    </row>
-    <row r="75" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM74" s="7">
+        <v>4598</v>
+      </c>
+    </row>
+    <row r="75" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>196</v>
@@ -15646,13 +15852,16 @@
       <c r="BL75" s="8">
         <v>4726</v>
       </c>
-    </row>
-    <row r="76" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM75" s="8">
+        <v>4879</v>
+      </c>
+    </row>
+    <row r="76" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>196</v>
@@ -15840,13 +16049,16 @@
       <c r="BL76" s="7">
         <v>5032</v>
       </c>
-    </row>
-    <row r="77" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM76" s="7">
+        <v>5127</v>
+      </c>
+    </row>
+    <row r="77" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>196</v>
@@ -16034,13 +16246,16 @@
       <c r="BL77" s="8">
         <v>5167</v>
       </c>
-    </row>
-    <row r="78" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM77" s="8">
+        <v>5077</v>
+      </c>
+    </row>
+    <row r="78" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>196</v>
@@ -16228,13 +16443,16 @@
       <c r="BL78" s="7">
         <v>5448</v>
       </c>
-    </row>
-    <row r="79" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM78" s="7">
+        <v>5330</v>
+      </c>
+    </row>
+    <row r="79" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>196</v>
@@ -16422,13 +16640,16 @@
       <c r="BL79" s="8">
         <v>5740</v>
       </c>
-    </row>
-    <row r="80" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM79" s="8">
+        <v>5468</v>
+      </c>
+    </row>
+    <row r="80" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>196</v>
@@ -16616,13 +16837,16 @@
       <c r="BL80" s="7">
         <v>5910</v>
       </c>
-    </row>
-    <row r="81" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM80" s="7">
+        <v>6157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>196</v>
@@ -16810,13 +17034,16 @@
       <c r="BL81" s="8">
         <v>6106</v>
       </c>
-    </row>
-    <row r="82" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM81" s="8">
+        <v>6209</v>
+      </c>
+    </row>
+    <row r="82" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>196</v>
@@ -17004,13 +17231,16 @@
       <c r="BL82" s="7">
         <v>6515</v>
       </c>
-    </row>
-    <row r="83" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM82" s="7">
+        <v>6550</v>
+      </c>
+    </row>
+    <row r="83" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>196</v>
@@ -17198,13 +17428,16 @@
       <c r="BL83" s="8">
         <v>7519</v>
       </c>
-    </row>
-    <row r="84" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM83" s="8">
+        <v>6924</v>
+      </c>
+    </row>
+    <row r="84" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>196</v>
@@ -17392,13 +17625,16 @@
       <c r="BL84" s="7">
         <v>8159</v>
       </c>
-    </row>
-    <row r="85" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM84" s="7">
+        <v>7872</v>
+      </c>
+    </row>
+    <row r="85" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>196</v>
@@ -17586,13 +17822,16 @@
       <c r="BL85" s="8">
         <v>7861</v>
       </c>
-    </row>
-    <row r="86" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM85" s="8">
+        <v>8595</v>
+      </c>
+    </row>
+    <row r="86" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>196</v>
@@ -17780,13 +18019,16 @@
       <c r="BL86" s="7">
         <v>8868</v>
       </c>
-    </row>
-    <row r="87" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM86" s="7">
+        <v>8472</v>
+      </c>
+    </row>
+    <row r="87" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>196</v>
@@ -17974,13 +18216,16 @@
       <c r="BL87" s="8">
         <v>9440</v>
       </c>
-    </row>
-    <row r="88" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM87" s="8">
+        <v>9523</v>
+      </c>
+    </row>
+    <row r="88" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>196</v>
@@ -18168,13 +18413,16 @@
       <c r="BL88" s="7">
         <v>10243</v>
       </c>
-    </row>
-    <row r="89" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM88" s="7">
+        <v>10140</v>
+      </c>
+    </row>
+    <row r="89" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>196</v>
@@ -18362,13 +18610,16 @@
       <c r="BL89" s="8">
         <v>10582</v>
       </c>
-    </row>
-    <row r="90" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM89" s="8">
+        <v>10905</v>
+      </c>
+    </row>
+    <row r="90" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>196</v>
@@ -18556,13 +18807,16 @@
       <c r="BL90" s="7">
         <v>9498</v>
       </c>
-    </row>
-    <row r="91" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM90" s="7">
+        <v>11247</v>
+      </c>
+    </row>
+    <row r="91" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>196</v>
@@ -18750,13 +19004,16 @@
       <c r="BL91" s="8">
         <v>11644</v>
       </c>
-    </row>
-    <row r="92" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM91" s="8">
+        <v>10300</v>
+      </c>
+    </row>
+    <row r="92" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>196</v>
@@ -18944,13 +19201,16 @@
       <c r="BL92" s="7">
         <v>11909</v>
       </c>
-    </row>
-    <row r="93" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM92" s="7">
+        <v>12210</v>
+      </c>
+    </row>
+    <row r="93" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>196</v>
@@ -19138,13 +19398,16 @@
       <c r="BL93" s="8">
         <v>10961</v>
       </c>
-    </row>
-    <row r="94" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM93" s="8">
+        <v>12798</v>
+      </c>
+    </row>
+    <row r="94" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>196</v>
@@ -19332,13 +19595,16 @@
       <c r="BL94" s="7">
         <v>13431</v>
       </c>
-    </row>
-    <row r="95" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM94" s="7">
+        <v>11574</v>
+      </c>
+    </row>
+    <row r="95" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>196</v>
@@ -19526,13 +19792,16 @@
       <c r="BL95" s="8">
         <v>15975</v>
       </c>
-    </row>
-    <row r="96" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM95" s="8">
+        <v>14310</v>
+      </c>
+    </row>
+    <row r="96" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>196</v>
@@ -19720,13 +19989,16 @@
       <c r="BL96" s="7">
         <v>17258</v>
       </c>
-    </row>
-    <row r="97" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM96" s="7">
+        <v>17192</v>
+      </c>
+    </row>
+    <row r="97" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>196</v>
@@ -19914,13 +20186,16 @@
       <c r="BL97" s="8">
         <v>18296</v>
       </c>
-    </row>
-    <row r="98" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM97" s="8">
+        <v>18411</v>
+      </c>
+    </row>
+    <row r="98" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>196</v>
@@ -20108,13 +20383,16 @@
       <c r="BL98" s="7">
         <v>19368</v>
       </c>
-    </row>
-    <row r="99" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM98" s="7">
+        <v>19243</v>
+      </c>
+    </row>
+    <row r="99" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>196</v>
@@ -20302,13 +20580,16 @@
       <c r="BL99" s="8">
         <v>19966</v>
       </c>
-    </row>
-    <row r="100" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM99" s="8">
+        <v>20316</v>
+      </c>
+    </row>
+    <row r="100" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>196</v>
@@ -20496,13 +20777,16 @@
       <c r="BL100" s="7">
         <v>19383</v>
       </c>
-    </row>
-    <row r="101" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM100" s="7">
+        <v>20840</v>
+      </c>
+    </row>
+    <row r="101" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>196</v>
@@ -20690,13 +20974,16 @@
       <c r="BL101" s="8">
         <v>18776</v>
       </c>
-    </row>
-    <row r="102" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM101" s="8">
+        <v>20120</v>
+      </c>
+    </row>
+    <row r="102" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>196</v>
@@ -20884,13 +21171,16 @@
       <c r="BL102" s="7">
         <v>17435</v>
       </c>
-    </row>
-    <row r="103" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM102" s="7">
+        <v>19454</v>
+      </c>
+    </row>
+    <row r="103" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>196</v>
@@ -21078,13 +21368,16 @@
       <c r="BL103" s="8">
         <v>16136</v>
       </c>
-    </row>
-    <row r="104" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM103" s="8">
+        <v>17446</v>
+      </c>
+    </row>
+    <row r="104" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>196</v>
@@ -21272,13 +21565,16 @@
       <c r="BL104" s="7">
         <v>13731</v>
       </c>
-    </row>
-    <row r="105" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM104" s="7">
+        <v>15584</v>
+      </c>
+    </row>
+    <row r="105" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>196</v>
@@ -21466,13 +21762,16 @@
       <c r="BL105" s="8">
         <v>11963</v>
       </c>
-    </row>
-    <row r="106" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM105" s="8">
+        <v>13215</v>
+      </c>
+    </row>
+    <row r="106" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>196</v>
@@ -21660,13 +21959,16 @@
       <c r="BL106" s="7">
         <v>10044</v>
       </c>
-    </row>
-    <row r="107" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM106" s="7">
+        <v>11059</v>
+      </c>
+    </row>
+    <row r="107" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>196</v>
@@ -21854,13 +22156,16 @@
       <c r="BL107" s="8">
         <v>7987</v>
       </c>
-    </row>
-    <row r="108" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM107" s="8">
+        <v>8940</v>
+      </c>
+    </row>
+    <row r="108" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>196</v>
@@ -22048,13 +22353,16 @@
       <c r="BL108" s="7">
         <v>6364</v>
       </c>
-    </row>
-    <row r="109" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM108" s="7">
+        <v>7141</v>
+      </c>
+    </row>
+    <row r="109" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>196</v>
@@ -22242,13 +22550,16 @@
       <c r="BL109" s="8">
         <v>4707</v>
       </c>
-    </row>
-    <row r="110" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM109" s="8">
+        <v>5350</v>
+      </c>
+    </row>
+    <row r="110" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>196</v>
@@ -22436,13 +22747,16 @@
       <c r="BL110" s="7">
         <v>3352</v>
       </c>
-    </row>
-    <row r="111" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM110" s="7">
+        <v>3903</v>
+      </c>
+    </row>
+    <row r="111" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C111" s="8" t="s">
         <v>196</v>
@@ -22630,13 +22944,213 @@
       <c r="BL111" s="8">
         <v>5888</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="1"/>
+      <c r="BM111" s="8">
+        <v>7143</v>
+      </c>
+    </row>
+    <row r="112" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A112" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H112" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="I112" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="J112" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K112" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L112" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="M112" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="N112" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="O112" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P112" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q112" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="R112" s="7">
+        <v>0</v>
+      </c>
+      <c r="S112" s="7">
+        <v>0</v>
+      </c>
+      <c r="T112" s="7">
+        <v>0</v>
+      </c>
+      <c r="U112" s="7">
+        <v>0</v>
+      </c>
+      <c r="V112" s="7">
+        <v>0</v>
+      </c>
+      <c r="W112" s="7">
+        <v>0</v>
+      </c>
+      <c r="X112" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y112" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z112" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA112" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB112" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC112" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD112" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE112" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF112" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG112" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH112" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI112" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ112" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK112" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL112" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM112" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN112" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO112" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP112" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ112" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR112" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS112" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT112" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU112" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV112" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW112" s="7">
+        <v>0</v>
+      </c>
+      <c r="AX112" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY112" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ112" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA112" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB112" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC112" s="7">
+        <v>0</v>
+      </c>
+      <c r="BD112" s="7">
+        <v>0</v>
+      </c>
+      <c r="BE112" s="7">
+        <v>0</v>
+      </c>
+      <c r="BF112" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG112" s="7">
+        <v>0</v>
+      </c>
+      <c r="BH112" s="7">
+        <v>0</v>
+      </c>
+      <c r="BI112" s="7">
+        <v>0</v>
+      </c>
+      <c r="BJ112" s="7">
+        <v>0</v>
+      </c>
+      <c r="BK112" s="7">
+        <v>0</v>
+      </c>
+      <c r="BL112" s="7">
+        <v>0</v>
+      </c>
+      <c r="BM112" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
-      <c r="B114" s="2"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1"/>
+      <c r="B115" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
